--- a/March'21/02.03.2021/Bank Statement.xlsx
+++ b/March'21/02.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2455,6 +2455,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,30 +2528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3123,70 +3123,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="270"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3195,55 +3195,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="263" t="s">
+      <c r="K4" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="265" t="s">
+      <c r="L4" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="267" t="s">
+      <c r="M4" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="269" t="s">
+      <c r="N4" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="271" t="s">
+      <c r="O4" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="264" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="258" t="s">
+      <c r="Q4" s="266" t="s">
         <v>134</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3256,23 +3256,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="253"/>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="259"/>
+      <c r="A5" s="261"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="267"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -6202,14 +6202,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6222,6 +6214,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8167,7 +8167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -9592,8 +9592,8 @@
   </sheetPr>
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10002,16 +10002,24 @@
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="150"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
+      <c r="F13" s="168">
+        <v>200</v>
+      </c>
+      <c r="G13" s="168">
+        <v>200</v>
+      </c>
       <c r="H13" s="168"/>
       <c r="I13" s="168"/>
       <c r="J13" s="172"/>
       <c r="K13" s="172"/>
       <c r="L13" s="168"/>
       <c r="M13" s="169"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
+      <c r="N13" s="170">
+        <v>25</v>
+      </c>
+      <c r="O13" s="170">
+        <v>10</v>
+      </c>
       <c r="P13" s="170"/>
       <c r="Q13" s="175"/>
       <c r="T13" s="316" t="s">
@@ -10405,11 +10413,11 @@
       </c>
       <c r="F28" s="201">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="G28" s="201">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H28" s="201">
         <f t="shared" si="0"/>
@@ -10437,11 +10445,11 @@
       </c>
       <c r="N28" s="201">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O28" s="201">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P28" s="201">
         <f t="shared" si="0"/>
